--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,187 +46,181 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
     <t>tiny</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>put</t>
+    <t>box</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>two</t>
+    <t>little</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>much</t>
   </si>
   <si>
     <t>one</t>
@@ -235,9 +229,6 @@
     <t>toy</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -247,15 +238,15 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
@@ -265,34 +256,37 @@
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>enjoys</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>learn</t>
@@ -301,40 +295,34 @@
     <t>christmas</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>game</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
     <t>playing</t>
   </si>
   <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>positive</t>
@@ -695,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -764,13 +752,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -782,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -806,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -835,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K4">
         <v>0.8615384615384616</v>
@@ -864,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K5">
-        <v>0.8602150537634409</v>
+        <v>0.85</v>
       </c>
       <c r="L5">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -906,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -914,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7746478873239436</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -932,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K6">
         <v>0.8148148148148148</v>
@@ -964,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7204301075268817</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D7">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1006,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1014,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6875</v>
+        <v>0.671875</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1032,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K8">
         <v>0.75</v>
@@ -1064,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6621621621621622</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C9">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1082,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K9">
-        <v>0.703125</v>
+        <v>0.71875</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1106,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1114,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6296296296296297</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1132,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K10">
         <v>0.6981132075471698</v>
@@ -1164,13 +1152,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6181818181818182</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1182,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>0.5652173913043478</v>
+        <v>0.5466284074605452</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>381</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>381</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1206,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1214,13 +1202,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6041666666666666</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1232,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K12">
-        <v>0.5494978479196556</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L12">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1256,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>314</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1264,13 +1252,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6019417475728155</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C13">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1282,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="K13">
-        <v>0.491701244813278</v>
+        <v>0.5020746887966805</v>
       </c>
       <c r="L13">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M13">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1306,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1314,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5952380952380952</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1332,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K14">
-        <v>0.460655737704918</v>
+        <v>0.4549180327868853</v>
       </c>
       <c r="L14">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="M14">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1356,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1364,13 +1352,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5798319327731093</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C15">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1382,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K15">
-        <v>0.3396226415094339</v>
+        <v>0.3547400611620795</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1406,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1414,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5428571428571428</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1432,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>0.3313253012048193</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1456,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1464,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5428571428571428</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1482,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K17">
-        <v>0.3211009174311927</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="L17">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="M17">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1506,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>222</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1514,13 +1502,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5185185185185185</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1532,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K18">
-        <v>0.3174603174603174</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1556,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1564,13 +1552,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1582,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K19">
-        <v>0.3</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1606,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1614,13 +1602,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4811594202898551</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C20">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D20">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1632,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K20">
-        <v>0.2459016393442623</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1656,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1664,13 +1652,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.453125</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1682,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K21">
-        <v>0.1953125</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1706,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1714,7 +1702,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4489795918367347</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C22">
         <v>22</v>
@@ -1732,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K22">
-        <v>0.1807228915662651</v>
+        <v>0.1953125</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1756,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>204</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1764,13 +1752,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4473684210526316</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1782,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K23">
-        <v>0.1774193548387097</v>
+        <v>0.1847389558232932</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1806,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>153</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1814,13 +1802,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4444444444444444</v>
+        <v>0.4028436018957346</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1832,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K24">
-        <v>0.1746031746031746</v>
+        <v>0.184</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1856,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1864,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4333333333333333</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1882,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K25">
-        <v>0.1678321678321678</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1906,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1914,13 +1902,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4222222222222222</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1932,31 +1920,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K26">
-        <v>0.1498685363716039</v>
+        <v>0.1570175438596491</v>
       </c>
       <c r="L26">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M26">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>970</v>
+        <v>961</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1964,13 +1952,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4096385542168675</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1982,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K27">
-        <v>0.1452991452991453</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="L27">
         <v>17</v>
@@ -2006,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2014,13 +2002,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4028436018957346</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C28">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2032,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K28">
-        <v>0.136</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2056,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>108</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2064,13 +2052,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3809523809523809</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2082,31 +2070,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K29">
-        <v>0.08356545961002786</v>
+        <v>0.07597402597402597</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>329</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2114,13 +2102,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.375</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C30">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2132,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K30">
-        <v>0.08021390374331551</v>
+        <v>0.07242339832869081</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2156,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2164,13 +2152,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3622047244094488</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2182,31 +2170,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K31">
-        <v>0.07272727272727272</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="L31">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1428</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2214,49 +2202,49 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3473684210526316</v>
+        <v>0.3671875</v>
       </c>
       <c r="C32">
+        <v>47</v>
+      </c>
+      <c r="D32">
+        <v>47</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>81</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32">
+        <v>0.04394141145139813</v>
+      </c>
+      <c r="L32">
         <v>33</v>
       </c>
-      <c r="D32">
-        <v>33</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>62</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K32">
-        <v>0.07003891050583658</v>
-      </c>
-      <c r="L32">
-        <v>18</v>
-      </c>
       <c r="M32">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>239</v>
+        <v>718</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2264,13 +2252,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3454545454545455</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2282,31 +2270,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K33">
-        <v>0.06481481481481481</v>
+        <v>0.02664298401420959</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>303</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2314,13 +2302,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2985074626865671</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2332,31 +2320,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>47</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K34">
-        <v>0.044</v>
-      </c>
-      <c r="L34">
-        <v>33</v>
-      </c>
-      <c r="M34">
-        <v>35</v>
-      </c>
-      <c r="N34">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O34">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>717</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2364,13 +2328,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2921348314606741</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2382,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2390,13 +2354,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2857142857142857</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2408,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2416,13 +2380,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2777777777777778</v>
+        <v>0.3125</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2434,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2442,13 +2406,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2673267326732673</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C38">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2460,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>148</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2468,7 +2432,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2307692307692308</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C39">
         <v>27</v>
@@ -2486,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2494,13 +2458,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2040816326530612</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2512,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>78</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2520,13 +2484,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2010309278350516</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2538,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2546,13 +2510,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1847826086956522</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="C42">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2564,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>225</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2572,13 +2536,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1708860759493671</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C43">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D43">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2590,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2598,13 +2562,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1613924050632911</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="C44">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2616,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>265</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2624,13 +2588,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1572700296735905</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C45">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="D45">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2642,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>568</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2650,13 +2614,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1542056074766355</v>
+        <v>0.1617210682492582</v>
       </c>
       <c r="C46">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2668,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>181</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2676,25 +2640,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1495327102803738</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D47">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E47">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>91</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2702,25 +2666,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.146551724137931</v>
+        <v>0.1354466858789625</v>
       </c>
       <c r="C48">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D48">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2728,13 +2692,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2746,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2754,13 +2718,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1440677966101695</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2772,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>101</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2780,13 +2744,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.140625</v>
+        <v>0.118942731277533</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2798,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>110</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2806,25 +2770,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1277533039647577</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="C52">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>396</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2832,13 +2796,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1210191082802548</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2850,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>138</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2858,25 +2822,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.12</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="C54">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>154</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2884,13 +2848,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1071428571428571</v>
+        <v>0.1028571428571429</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2902,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2910,25 +2874,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1063829787234043</v>
+        <v>0.1019108280254777</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2936,13 +2900,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.09740259740259741</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2954,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2962,13 +2926,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.09677419354838709</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2980,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2988,25 +2952,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.09398496240601503</v>
+        <v>0.078125</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E59">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F59">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>241</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3014,13 +2978,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.08900523560209424</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3032,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>174</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3040,25 +3004,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07692307692307693</v>
+        <v>0.06197183098591549</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E61">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>180</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3066,13 +3030,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.07123287671232877</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="C62">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D62">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3084,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>339</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3092,25 +3056,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.06435643564356436</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="C63">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E63">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="F63">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>567</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3118,25 +3082,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0623608017817372</v>
+        <v>0.0356234096692112</v>
       </c>
       <c r="C64">
         <v>28</v>
       </c>
       <c r="D64">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>421</v>
+        <v>758</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3144,103 +3108,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05352112676056338</v>
+        <v>0.03369065849923431</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.05095541401273886</v>
-      </c>
-      <c r="C66">
-        <v>40</v>
-      </c>
-      <c r="D66">
-        <v>49</v>
-      </c>
-      <c r="E66">
-        <v>0.18</v>
-      </c>
-      <c r="F66">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.03993855606758832</v>
-      </c>
-      <c r="C67">
-        <v>26</v>
-      </c>
-      <c r="D67">
-        <v>30</v>
-      </c>
-      <c r="E67">
-        <v>0.13</v>
-      </c>
-      <c r="F67">
-        <v>0.87</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.0397196261682243</v>
-      </c>
-      <c r="C68">
-        <v>17</v>
-      </c>
-      <c r="D68">
-        <v>23</v>
-      </c>
-      <c r="E68">
-        <v>0.26</v>
-      </c>
-      <c r="F68">
-        <v>0.74</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>411</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
